--- a/generated_docs/WR_89787325_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Billy Dunnivan</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/18/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>835-1</t>
+          <t>#NO MATCH-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89787325_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15492.84</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +858,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>1191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>1548.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>1191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>1429.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="H32" s="13" t="n">
-        <v>7745.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="15" t="inlineStr"/>
       <c r="H38" s="16" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="15" t="inlineStr"/>
       <c r="H40" s="16" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G42" s="15" t="inlineStr"/>
       <c r="H42" s="16" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="H43" s="13" t="n">
-        <v>2527.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G49" s="15" t="inlineStr"/>
       <c r="H49" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>952.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G51" s="15" t="inlineStr"/>
       <c r="H51" s="16" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>1763.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G58" s="15" t="inlineStr"/>
       <c r="H58" s="16" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="G60" s="15" t="inlineStr"/>
       <c r="H60" s="16" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G62" s="15" t="inlineStr"/>
       <c r="H62" s="16" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>2977.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89787325_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15492.84</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +771,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +854,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>0</v>
+        <v>1548.3</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>1429.2</v>
       </c>
     </row>
     <row r="32">
@@ -1174,7 +1170,7 @@
         </is>
       </c>
       <c r="H32" s="13" t="n">
-        <v>0</v>
+        <v>7745.799999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="G38" s="15" t="inlineStr"/>
       <c r="H38" s="16" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="15" t="inlineStr"/>
       <c r="H40" s="16" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="G42" s="15" t="inlineStr"/>
       <c r="H42" s="16" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="43">
@@ -1437,7 +1433,7 @@
         </is>
       </c>
       <c r="H43" s="13" t="n">
-        <v>0</v>
+        <v>2527.27</v>
       </c>
     </row>
     <row r="46">
@@ -1520,7 +1516,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="49">
@@ -1554,7 +1550,7 @@
       </c>
       <c r="G49" s="15" t="inlineStr"/>
       <c r="H49" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1584,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>952.8</v>
       </c>
     </row>
     <row r="51">
@@ -1622,7 +1618,7 @@
       </c>
       <c r="G51" s="15" t="inlineStr"/>
       <c r="H51" s="16" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="52">
@@ -1632,7 +1628,7 @@
         </is>
       </c>
       <c r="H52" s="13" t="n">
-        <v>0</v>
+        <v>1763.72</v>
       </c>
     </row>
     <row r="55">
@@ -1715,7 +1711,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="58">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="G58" s="15" t="inlineStr"/>
       <c r="H58" s="16" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="59">
@@ -1783,7 +1779,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="60">
@@ -1817,7 +1813,7 @@
       </c>
       <c r="G60" s="15" t="inlineStr"/>
       <c r="H60" s="16" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="61">
@@ -1851,7 +1847,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="62">
@@ -1885,7 +1881,7 @@
       </c>
       <c r="G62" s="15" t="inlineStr"/>
       <c r="H62" s="16" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="63">
@@ -1919,7 +1915,7 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="64">
@@ -1929,7 +1925,7 @@
         </is>
       </c>
       <c r="H64" s="13" t="n">
-        <v>0</v>
+        <v>2977.5</v>
       </c>
     </row>
   </sheetData>
